--- a/dRSTinV3_Automation/Test Data/Excel Data for dRSTin.xlsx
+++ b/dRSTinV3_Automation/Test Data/Excel Data for dRSTin.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20055" windowHeight="7380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Full Name</t>
   </si>
@@ -112,13 +112,37 @@
   </si>
   <si>
     <t>dRSTinpwd</t>
+  </si>
+  <si>
+    <t>DatasetName</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>zsd</t>
+  </si>
+  <si>
+    <t>dcf</t>
+  </si>
+  <si>
+    <t>erf</t>
+  </si>
+  <si>
+    <t>frre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +217,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -271,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,6 +335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,20 +511,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -504,7 +535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -521,14 +552,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
@@ -539,7 +570,7 @@
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -585,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -608,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -631,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -664,53 +695,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
